--- a/00 Ü1 Anbieterevaluierung.xlsx
+++ b/00 Ü1 Anbieterevaluierung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715"/>
   </bookViews>
   <sheets>
     <sheet name="Anbieter IF1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -77,18 +77,6 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>Wels</t>
-  </si>
-  <si>
-    <t>München</t>
-  </si>
-  <si>
-    <t>German Soft XYZ</t>
-  </si>
-  <si>
-    <t>www.test.com</t>
-  </si>
-  <si>
     <t>Kriterium A</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
     <t>Kategorie B</t>
   </si>
   <si>
-    <t>Kategorisierungen und Kriterien selbst festlegen</t>
-  </si>
-  <si>
     <t>Anbieter</t>
   </si>
   <si>
@@ -279,6 +264,33 @@
   </si>
   <si>
     <t>Wartungskosten</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>www.sab2i.com</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>500-1000</t>
+  </si>
+  <si>
+    <t>FIS</t>
+  </si>
+  <si>
+    <t>www.fisglobal.com</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Watford</t>
   </si>
 </sst>
 </file>
@@ -676,10 +688,10 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -687,7 +699,7 @@
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="3" customWidth="1"/>
@@ -695,9 +707,9 @@
     <col min="9" max="9" width="20" style="3" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" style="6" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="28.42578125" style="6" customWidth="1"/>
-    <col min="14" max="15" width="25.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="6" customWidth="1"/>
+    <col min="13" max="14" width="22.5703125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" style="3" customWidth="1"/>
     <col min="17" max="17" width="48" customWidth="1"/>
   </cols>
@@ -725,34 +737,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -760,68 +772,77 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
+      <c r="H3" s="3">
+        <v>37000</v>
       </c>
       <c r="J3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="8">
@@ -836,10 +857,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -868,34 +888,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -906,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -920,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -931,12 +951,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -968,34 +988,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1006,10 +1026,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1020,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1031,12 +1051,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1094,22 +1114,22 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1117,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1168,34 +1188,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1206,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1220,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1231,12 +1251,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1268,34 +1288,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1306,10 +1326,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1320,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1331,12 +1351,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1394,22 +1414,22 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1417,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1440,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1463,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1486,16 +1506,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -1509,10 +1529,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1532,10 +1552,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1555,16 +1575,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" t="s">
-        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>7</v>
@@ -1578,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1601,16 +1621,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -1624,16 +1644,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -1647,16 +1667,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -1692,7 +1712,7 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B10" sqref="B10"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
@@ -1713,34 +1733,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1748,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1762,7 +1782,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1773,12 +1793,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1810,34 +1830,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1848,10 +1868,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1862,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1873,12 +1893,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/00 Ü1 Anbieterevaluierung.xlsx
+++ b/00 Ü1 Anbieterevaluierung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Anbieter IF1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="113">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -167,9 +167,6 @@
     <t>paybox</t>
   </si>
   <si>
-    <t>Österreich</t>
-  </si>
-  <si>
     <t>ATOS Austria</t>
   </si>
   <si>
@@ -291,13 +288,97 @@
   </si>
   <si>
     <t>Watford</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Cloudera</t>
+  </si>
+  <si>
+    <t>NetApp Austria</t>
+  </si>
+  <si>
+    <t>http://www.netapp.com/de/</t>
+  </si>
+  <si>
+    <t>http://at.atos.net/de-at/home.html</t>
+  </si>
+  <si>
+    <t>http://www.ibm.com/at/de/</t>
+  </si>
+  <si>
+    <t>IBM Austria</t>
+  </si>
+  <si>
+    <t>http://www8.hp.com/at/de/home.html</t>
+  </si>
+  <si>
+    <t>HP Austria</t>
+  </si>
+  <si>
+    <t>Teradata Austria</t>
+  </si>
+  <si>
+    <t>http://www.teradata.de/?LangType=1031</t>
+  </si>
+  <si>
+    <t>http://www.oracle.com/at/index.html</t>
+  </si>
+  <si>
+    <t>Oracle Austria</t>
+  </si>
+  <si>
+    <t>http://global.sap.com/austria/index.epx</t>
+  </si>
+  <si>
+    <t>SAP Austria</t>
+  </si>
+  <si>
+    <t>http://austria.emc.com/index.htm</t>
+  </si>
+  <si>
+    <t>EMC Austria</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>http://aws.amazon.com/de/</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/de-at/default.aspx</t>
+  </si>
+  <si>
+    <t>Microsoft Austria</t>
+  </si>
+  <si>
+    <t>https://cloud.google.com/products/big-query</t>
+  </si>
+  <si>
+    <t>Mountain View</t>
+  </si>
+  <si>
+    <t>Vmware Austria</t>
+  </si>
+  <si>
+    <t>http://www.vmware.com/at/</t>
+  </si>
+  <si>
+    <t>http://www.cloudera.com/content/cloudera/en/home.html</t>
+  </si>
+  <si>
+    <t>Palo Alto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,17 +472,22 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +525,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -473,6 +559,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -507,9 +594,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,19 +770,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
       <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
@@ -714,7 +802,7 @@
     <col min="17" max="17" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -767,28 +855,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
@@ -802,21 +890,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -838,13 +926,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -864,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -876,7 +964,7 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -886,7 +974,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -918,7 +1006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -932,7 +1020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -943,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -954,7 +1042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -966,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -978,7 +1066,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -986,7 +1074,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1018,7 +1106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1032,7 +1120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1043,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1054,7 +1142,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1066,32 +1154,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G52" sqref="G52"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="3"/>
     <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
     <col min="8" max="12" width="16.28515625" style="6" customWidth="1"/>
     <col min="13" max="13" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1129,18 +1217,21 @@
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -1152,21 +1243,291 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="C4" s="4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="C7" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C11" r:id="rId11"/>
+    <hyperlink ref="C12" r:id="rId12"/>
+    <hyperlink ref="C13" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1178,7 +1539,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1186,7 +1547,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1232,7 +1593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1243,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1254,7 +1615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1266,7 +1627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1278,7 +1639,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1286,7 +1647,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +1679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1332,7 +1693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1343,7 +1704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1354,7 +1715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1366,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
@@ -1378,7 +1739,7 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="10" customWidth="1"/>
@@ -1391,7 +1752,7 @@
     <col min="13" max="13" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1440,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1455,7 +1816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1463,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1478,7 +1839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1486,7 +1847,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1501,21 +1862,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -1524,15 +1885,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1547,15 +1908,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1570,38 +1931,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1616,21 +1977,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -1639,21 +2000,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -1662,21 +2023,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -1706,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1718,7 +2079,7 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1731,7 +2092,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1742,16 +2103,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -1763,7 +2124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1771,10 +2132,10 @@
         <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1785,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1796,7 +2157,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1808,7 +2169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1820,7 +2181,7 @@
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1828,7 +2189,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1">
+    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1860,7 +2221,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1874,7 +2235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1885,7 +2246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1896,7 +2257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>

--- a/00 Ü1 Anbieterevaluierung.xlsx
+++ b/00 Ü1 Anbieterevaluierung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715"/>
   </bookViews>
   <sheets>
     <sheet name="Anbieter IF1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Software IF3" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anbieter IF1'!$A$1:$L$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anbieter IF1'!$A$1:$J$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Anbieter IF2'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Anbieter IF3'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware IF1'!$B$1:$I$1</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="154">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -131,18 +131,12 @@
     <t>Nr</t>
   </si>
   <si>
-    <t>Preisklasse</t>
-  </si>
-  <si>
     <t>Unternehmensgröße</t>
   </si>
   <si>
     <t>Umsatz</t>
   </si>
   <si>
-    <t>Finanzielle Situation</t>
-  </si>
-  <si>
     <t>Wartung/Weiterenticklung</t>
   </si>
   <si>
@@ -372,13 +366,142 @@
   </si>
   <si>
     <t>Palo Alto</t>
+  </si>
+  <si>
+    <t>Monitise Group Limited</t>
+  </si>
+  <si>
+    <t>www.monitise.com</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>$4,48 Mrd.</t>
+  </si>
+  <si>
+    <t>Fiserv Inc.</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>www.infosys.com</t>
+  </si>
+  <si>
+    <t>www.fiserv.com</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>Digital Insight Corp.</t>
+  </si>
+  <si>
+    <t>www.digitalinsight.com</t>
+  </si>
+  <si>
+    <t>Kalifornien</t>
+  </si>
+  <si>
+    <t>Jack Henry</t>
+  </si>
+  <si>
+    <t>www.jackhenrybanking.com</t>
+  </si>
+  <si>
+    <t>$7,39 Mrd.</t>
+  </si>
+  <si>
+    <t>$1.03 Mrd.</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>www.kony.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK </t>
+  </si>
+  <si>
+    <t>Kony Inc.</t>
+  </si>
+  <si>
+    <t>Sybase EDV-Systeme Gmbh</t>
+  </si>
+  <si>
+    <t>www.sybase.at</t>
+  </si>
+  <si>
+    <t>$1,22 Mrd.</t>
+  </si>
+  <si>
+    <t>www.aciworldwide.com</t>
+  </si>
+  <si>
+    <t>ACI Worldwide Germany</t>
+  </si>
+  <si>
+    <t>Sulzbach</t>
+  </si>
+  <si>
+    <t>$ 666,6 Mil.</t>
+  </si>
+  <si>
+    <t>www.eleader.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eLeader </t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Misys Austria</t>
+  </si>
+  <si>
+    <t>www.misys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT </t>
+  </si>
+  <si>
+    <t>Service2Media</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>www.service2media.com</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>$5,2 Mrd.</t>
+  </si>
+  <si>
+    <t>$100 Mil.</t>
+  </si>
+  <si>
+    <t>Intelligent Environments</t>
+  </si>
+  <si>
+    <t>www.intelligentenvironments.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,7 +595,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,9 +608,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -525,7 +648,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -559,7 +682,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -594,10 +716,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -770,39 +891,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="22" style="6" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="20" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="6" customWidth="1"/>
-    <col min="13" max="14" width="22.5703125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="48" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -824,58 +944,58 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>80</v>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>7</v>
@@ -883,76 +1003,481 @@
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="3">
-        <v>37000</v>
-      </c>
-      <c r="J3" s="3"/>
+        <v>30000</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3">
+        <v>750</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
+      <c r="B5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <v>160000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="3">
+        <v>650</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>200</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L5"/>
+  <autoFilter ref="A1:J5"/>
   <sortState ref="A2:P5">
-    <sortCondition ref="M1"/>
+    <sortCondition ref="K1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -964,7 +1489,7 @@
       <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -974,7 +1499,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1006,7 +1531,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1020,7 +1545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1031,7 +1556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1042,7 +1567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1066,7 +1591,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1074,7 +1599,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1106,7 +1631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1120,7 +1645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1131,7 +1656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1142,7 +1667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1154,19 +1679,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G52" sqref="G52"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="10" customWidth="1"/>
@@ -1179,7 +1704,7 @@
     <col min="13" max="13" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1220,15 +1745,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1243,15 +1768,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1266,15 +1791,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1289,15 +1814,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1312,15 +1837,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1335,15 +1860,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1355,15 +1880,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1378,35 +1903,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1421,35 +1946,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1461,35 +1986,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -1527,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1539,7 +2064,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -1547,7 +2072,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +2104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1593,7 +2118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1604,7 +2129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1615,7 +2140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1627,7 +2152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -1639,7 +2164,7 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1647,7 +2172,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -1679,7 +2204,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1693,7 +2218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1704,7 +2229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1715,7 +2240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1727,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
@@ -1739,7 +2264,7 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="8" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="10" customWidth="1"/>
@@ -1752,7 +2277,7 @@
     <col min="13" max="13" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1793,15 +2318,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1816,15 +2341,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1839,15 +2364,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1862,21 +2387,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -1885,15 +2410,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1908,15 +2433,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1931,38 +2456,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C9" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1977,21 +2502,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -2000,21 +2525,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -2023,21 +2548,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -2067,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -2079,7 +2604,7 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
@@ -2092,7 +2617,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -2103,16 +2628,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>8</v>
@@ -2124,18 +2649,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2146,7 +2671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2157,7 +2682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
@@ -2169,7 +2694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="1" tint="0.14999847407452621"/>
   </sheetPr>
@@ -2181,7 +2706,7 @@
       <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -2189,7 +2714,7 @@
     <col min="10" max="10" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>31</v>
       </c>
@@ -2221,7 +2746,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2235,7 +2760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -2246,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2257,7 +2782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
         <v>28</v>
       </c>

--- a/00 Ü1 Anbieterevaluierung.xlsx
+++ b/00 Ü1 Anbieterevaluierung.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="153">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>Paris</t>
-  </si>
-  <si>
-    <t>500-1000</t>
   </si>
   <si>
     <t>FIS</t>
@@ -897,10 +894,10 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -988,8 +985,8 @@
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>78</v>
+      <c r="H2" s="3">
+        <v>750</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
@@ -1009,16 +1006,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>7</v>
@@ -1027,7 +1024,7 @@
         <v>30000</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>7</v>
@@ -1047,16 +1044,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
         <v>112</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>113</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
@@ -1065,7 +1062,7 @@
         <v>750</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>7</v>
@@ -1079,16 +1076,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>7</v>
@@ -1097,9 +1094,15 @@
         <v>21000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1108,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>7</v>
@@ -1126,10 +1129,10 @@
         <v>160000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>7</v>
@@ -1146,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>7</v>
@@ -1170,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1178,16 +1181,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D8" t="s">
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>7</v>
@@ -1196,7 +1199,7 @@
         <v>2000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>7</v>
@@ -1208,7 +1211,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1216,16 +1219,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
         <v>130</v>
       </c>
-      <c r="D9" t="s">
-        <v>131</v>
-      </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
@@ -1251,10 +1254,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1269,7 +1272,7 @@
         <v>3800</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>7</v>
@@ -1289,16 +1292,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
@@ -1307,7 +1310,7 @@
         <v>5000</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>7</v>
@@ -1327,16 +1330,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>7</v>
@@ -1356,13 +1359,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" t="s">
         <v>144</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1391,16 +1394,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" t="s">
         <v>148</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" t="s">
-        <v>149</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>7</v>
@@ -1426,16 +1429,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>7</v>
@@ -1753,7 +1756,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1773,10 +1776,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1796,10 +1799,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1819,10 +1822,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1842,10 +1845,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1865,10 +1868,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1885,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1908,16 +1911,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
@@ -1928,10 +1931,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1951,16 +1954,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
@@ -1971,10 +1974,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1991,16 +1994,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>7</v>
@@ -2011,10 +2014,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>

--- a/00 Ü1 Anbieterevaluierung.xlsx
+++ b/00 Ü1 Anbieterevaluierung.xlsx
@@ -4,36 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="715" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Anbieter IF1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hardware IF1" sheetId="2" r:id="rId2"/>
-    <sheet name="Software IF1" sheetId="4" r:id="rId3"/>
-    <sheet name="Anbieter IF2" sheetId="6" r:id="rId4"/>
-    <sheet name="Hardware IF2" sheetId="7" r:id="rId5"/>
-    <sheet name="Software IF2" sheetId="8" r:id="rId6"/>
-    <sheet name="Anbieter IF3" sheetId="9" r:id="rId7"/>
-    <sheet name="Hardware IF3" sheetId="10" r:id="rId8"/>
-    <sheet name="Software IF3" sheetId="11" r:id="rId9"/>
+    <sheet name="Mobile Banking" sheetId="1" r:id="rId1"/>
+    <sheet name="HW Mobile Banking" sheetId="2" r:id="rId2"/>
+    <sheet name="SW Mobile Banking" sheetId="4" r:id="rId3"/>
+    <sheet name="Big Data" sheetId="6" r:id="rId4"/>
+    <sheet name="HW Big Data" sheetId="7" r:id="rId5"/>
+    <sheet name="SW Big Data" sheetId="8" r:id="rId6"/>
+    <sheet name="Contactless Payment" sheetId="9" r:id="rId7"/>
+    <sheet name="HW Contactless Payment" sheetId="10" r:id="rId8"/>
+    <sheet name="SW Contactless Payment" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Anbieter IF1'!$A$1:$J$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Anbieter IF2'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Anbieter IF3'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Hardware IF1'!$B$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Hardware IF2'!$B$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Hardware IF3'!$B$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Software IF1'!$B$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Software IF2'!$B$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Software IF3'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Big Data'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Contactless Payment'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'HW Big Data'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HW Contactless Payment'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'HW Mobile Banking'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mobile Banking'!$A$1:$H$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SW Big Data'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'SW Contactless Payment'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'SW Mobile Banking'!$B$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
   <si>
     <t xml:space="preserve">Nr. </t>
   </si>
@@ -77,21 +77,6 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>Kriterium A</t>
-  </si>
-  <si>
-    <t>Kriterium B</t>
-  </si>
-  <si>
-    <t>Kriterium C</t>
-  </si>
-  <si>
-    <t>Kategorie A</t>
-  </si>
-  <si>
-    <t>Kategorie B</t>
-  </si>
-  <si>
     <t>Anbieter</t>
   </si>
   <si>
@@ -137,9 +122,6 @@
     <t>Umsatz</t>
   </si>
   <si>
-    <t>Wartung/Weiterenticklung</t>
-  </si>
-  <si>
     <t>Beratung &amp; Planung</t>
   </si>
   <si>
@@ -492,6 +474,24 @@
   </si>
   <si>
     <t>www.intelligentenvironments.com</t>
+  </si>
+  <si>
+    <t>Wartung/Weiterentwicklung</t>
+  </si>
+  <si>
+    <t>Sicherheitszertifizierung</t>
+  </si>
+  <si>
+    <t>Anzahl unterstützter Plattformen</t>
+  </si>
+  <si>
+    <t>Schlungen/Weiterbildung</t>
+  </si>
+  <si>
+    <t>Prozessauslagerung möglich?</t>
+  </si>
+  <si>
+    <t>Short List</t>
   </si>
 </sst>
 </file>
@@ -894,10 +894,10 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C31" sqref="C31"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -907,14 +907,13 @@
     <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20" style="3" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="22.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" style="6" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="48" customWidth="1"/>
   </cols>
@@ -936,34 +935,34 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -971,32 +970,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3">
         <v>750</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1006,35 +1004,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>30000</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="3">
-        <v>30000</v>
+        <v>143</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1044,102 +1041,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="F4" s="3">
+        <v>750</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3">
-        <v>750</v>
+        <v>144</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>109</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21000</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3">
-        <v>21000</v>
+        <v>107</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="F6" s="3">
+        <v>160000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3">
-        <v>160000</v>
+        <v>120</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1149,69 +1143,67 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3">
         <v>650</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>120</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2000</v>
+        <v>121</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1219,32 +1211,31 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3">
+        <v>106</v>
+      </c>
+      <c r="F9" s="3">
         <v>5000</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1254,10 +1245,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1265,24 +1256,23 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
+      <c r="F10" s="3">
+        <v>3800</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3">
-        <v>3800</v>
+        <v>128</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1292,35 +1282,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5000</v>
+        <v>132</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>138</v>
+        <v>7</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1330,61 +1319,59 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="3">
+        <v>135</v>
+      </c>
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="F13" s="3">
         <v>4500</v>
       </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1394,32 +1381,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3">
+        <v>142</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="J14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
         <v>7</v>
       </c>
@@ -1429,34 +1415,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="3">
+        <v>106</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="I15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J5"/>
+  <autoFilter ref="A1:H5"/>
   <sortState ref="A2:P5">
-    <sortCondition ref="K1"/>
+    <sortCondition ref="I1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -1504,34 +1489,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1542,10 +1527,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1556,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1567,12 +1552,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1604,34 +1589,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1642,10 +1627,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1656,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1667,12 +1652,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1686,12 +1671,12 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G52" sqref="G52"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1701,13 +1686,18 @@
     <col min="3" max="3" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
-    <col min="8" max="12" width="16.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1729,34 +1719,37 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
+      <c r="H1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>151</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1771,15 +1764,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1794,15 +1787,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1817,15 +1810,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1840,15 +1833,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1863,15 +1856,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1883,15 +1876,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1906,35 +1899,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1949,35 +1942,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1989,35 +1982,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="8">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -2077,34 +2070,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2115,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2129,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2140,12 +2133,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2177,34 +2170,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2215,10 +2208,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2229,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2240,12 +2233,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2259,12 +2252,12 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H52" sqref="H52"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2276,11 +2269,16 @@
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" style="3" customWidth="1"/>
-    <col min="8" max="12" width="16.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="45" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2302,34 +2300,37 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -2344,15 +2345,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -2367,15 +2368,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2390,21 +2391,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>7</v>
@@ -2413,15 +2414,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2436,15 +2437,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2459,38 +2460,38 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="C9" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -2505,21 +2506,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>7</v>
@@ -2528,21 +2529,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -2551,21 +2552,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
@@ -2575,7 +2576,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
+  <autoFilter ref="A1:M1">
+    <filterColumn colId="7"/>
+    <filterColumn colId="11"/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
     <hyperlink ref="C6" r:id="rId2"/>
@@ -2622,34 +2626,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2657,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2671,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2682,12 +2686,12 @@
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2719,34 +2723,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2757,10 +2761,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2771,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2782,12 +2786,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
